--- a/src/demo/zxxt_02_excel_b_xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_02_excel_b_xlsx.w3mi.data.xlsx
@@ -5,22 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460" tabRatio="703"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460" tabRatio="703" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelTable" sheetId="4" r:id="rId1"/>
     <sheet name="Pivot based on ExcelTable" sheetId="8" r:id="rId2"/>
-    <sheet name="PrintArea (8 rows)" sheetId="1" r:id="rId3"/>
+    <sheet name="PrintArea ('8' rows)" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="E_">#REF!</definedName>
-    <definedName name="F_">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'PrintArea (8 rows)'!$A$1:$E$8</definedName>
-    <definedName name="RANGE_SUM1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'PrintArea (''8'' rows)'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'PrintArea (''8'' rows)'!$2:$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
@@ -938,12 +936,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ZXXT_02_EXCEL_SHEEET.XLSX]Pivot based on ExcelTable!PivotTable1</c:name>
+    <c:name>[ZXXT_02_EXCEL_B.XLSX]Pivot based on ExcelTable!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1336,7 +1333,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1998,7 +1994,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Moldabayev, Birzhan" refreshedDate="44134.71328009259" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Moldabayev, Birzhan" refreshedDate="44221.34225775463" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -2446,7 +2442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2513,8 +2509,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2588,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2657,7 +2653,7 @@
       <formula2>NOW()+3</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C{R-HEADER}</oddHeader>
